--- a/medicine/Psychotrope/Cabane_de_vigne_(France)/Cabane_de_vigne_(France).xlsx
+++ b/medicine/Psychotrope/Cabane_de_vigne_(France)/Cabane_de_vigne_(France).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cabane de vigne, ou loge de vigne, est une petite construction rurale isolée, en pierre sèche ou en matériaux végétaux, bâtie dans une parcelle viticole par l'exploitant de celle-ci. Elle ne doit pas être confondue avec la maisonnette de vigne, édifice qui nécessite l'intervention de professionnels et l'achat de matériaux artisanaux ou industriels et qui relève d'un niveau architectural plus élévé.
 </t>
@@ -511,10 +523,12 @@
           <t>Cabane de vigne contre maisonnette de vigne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cabane de vigne se différencie de la maisonnette de vigne par son caractère rudimentaire, son plan (pièce unique), ses dimensions au sol (réduites), ses techniques de construction (maçonnerie sans mortier, pièces et planches de bois), ses matériaux (pierres arrachées au sol, matériaux végétaux) et son investissement financier minime, voire nul (autoconstruction)[1].
-La maisonnette de vigne, comme son nom l'indique, épouse la forme d'une véritable maison et recourt aux mêmes procédés et matériaux de construction que cette dernière : murs de pierre maçonnés au mortier de chaux, parfois de terre, enduits muraux, toit de tuiles ou d'ardoises. Elle peut comporter deux pièces, la seconde servant d'écurie. Sa construction nécessite l'intervention de plusieurs corps de bâtiment (maçon, couvreur, voire charpentier) et un investissement financier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cabane de vigne se différencie de la maisonnette de vigne par son caractère rudimentaire, son plan (pièce unique), ses dimensions au sol (réduites), ses techniques de construction (maçonnerie sans mortier, pièces et planches de bois), ses matériaux (pierres arrachées au sol, matériaux végétaux) et son investissement financier minime, voire nul (autoconstruction).
+La maisonnette de vigne, comme son nom l'indique, épouse la forme d'une véritable maison et recourt aux mêmes procédés et matériaux de construction que cette dernière : murs de pierre maçonnés au mortier de chaux, parfois de terre, enduits muraux, toit de tuiles ou d'ardoises. Elle peut comporter deux pièces, la seconde servant d'écurie. Sa construction nécessite l'intervention de plusieurs corps de bâtiment (maçon, couvreur, voire charpentier) et un investissement financier.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois présentes dans les vignobles de France, les cabanes de vigne sont aujourd'hui de plus en plus rares. On en rencontre aussi en Espagne, en Italie, en Suisse et en Allemagne (Weinberghaus).
 À l'origine, elles permettaient au propriétaire de ranger quelques outils, de préparer la bouillie bordelaise et de s'abriter lorsqu'il faisait une pause ou en cas d'orage. Mais la mécanisation, le remplacement du cheval par le tracteur, l'accès plus rapide entre la maison et la vigne ont rendu ces constructions moins utiles, d'où leur disparition progressive.
@@ -577,10 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cabane de pierre
-Il y a la cabane de pierre, à pièce unique, bâtie sans mortier (elle est dite alors en pierre sèche), couverte par une voûte d'encorbellement sous une couverture de lauses. Dans certains cas, un mortier de terre est employé aux fins d'isolation[1].
-Cabane de planches
-Plus rarement, on trouve des cabanes tout en bois, à pièce unique, bâties en planches clouées sur un cadre en bois et coiffées d'une charpente rudimentaire[1].
+          <t>Cabane de pierre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a la cabane de pierre, à pièce unique, bâtie sans mortier (elle est dite alors en pierre sèche), couverte par une voûte d'encorbellement sous une couverture de lauses. Dans certains cas, un mortier de terre est employé aux fins d'isolation.
 </t>
         </is>
       </c>
@@ -606,10 +625,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cabane de planches</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus rarement, on trouve des cabanes tout en bois, à pièce unique, bâties en planches clouées sur un cadre en bois et coiffées d'une charpente rudimentaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cabane_de_vigne_(France)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabane_de_vigne_(France)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les appellations locales sont très variées.
 </t>
